--- a/test_files/test_files_2/file2_test1_excel.xlsx
+++ b/test_files/test_files_2/file2_test1_excel.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>TESTFILE2</t>
+  </si>
+  <si>
+    <t>Bhavesh</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -371,6 +374,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_files/test_files_2/file2_test1_excel.xlsx
+++ b/test_files/test_files_2/file2_test1_excel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>TESTFILE2</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>SS</t>
   </si>
 </sst>
 </file>
@@ -13100,10 +13106,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="CC5:CK15"/>
+  <dimension ref="A5:CK24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" workbookViewId="0">
-      <selection activeCell="CC15" sqref="CC15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13116,6 +13122,22 @@
     <row r="15" spans="81:89">
       <c r="CC15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:69">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:69">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/test_files_2/file2_test1_excel.xlsx
+++ b/test_files/test_files_2/file2_test1_excel.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>TESTFILE2</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>SS</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -13106,20 +13109,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:CK24"/>
+  <dimension ref="A1:CK24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="5" spans="81:89">
+    <row r="1" spans="1:89">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:89">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89">
       <c r="CK5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="81:89">
+    <row r="15" spans="1:89">
       <c r="CC15" t="s">
         <v>13</v>
       </c>
